--- a/USHPRR/RED.xlsx
+++ b/USHPRR/RED.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E33395-AEBB-414F-8508-3B44002427BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7794E72B-E1F8-8749-9777-13C4B27FBF16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="680" yWindow="2700" windowWidth="33760" windowHeight="22720" activeTab="1" xr2:uid="{6717AD8C-574E-F14A-9669-DA5424F212C2}"/>
+    <workbookView xWindow="680" yWindow="2700" windowWidth="33760" windowHeight="22720" activeTab="2" xr2:uid="{6717AD8C-574E-F14A-9669-DA5424F212C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RED data" sheetId="1" r:id="rId1"/>
+    <sheet name="total diffusion" sheetId="2" r:id="rId2"/>
+    <sheet name="constant Kiv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="46">
   <si>
     <t>T</t>
   </si>
@@ -161,6 +162,9 @@
   </si>
   <si>
     <t>(1.47E-14)*EXP(-0.575*AF57)</t>
+  </si>
+  <si>
+    <t>fixed Kiv</t>
   </si>
 </sst>
 </file>
@@ -376,7 +380,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:f>'RED data'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -409,7 +413,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$12</c:f>
+              <c:f>'RED data'!$I$5:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -479,7 +483,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:f>'RED data'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -512,7 +516,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$12</c:f>
+              <c:f>'RED data'!$J$5:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -907,7 +911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -967,7 +971,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$8:$N$24</c:f>
+              <c:f>'total diffusion'!$N$8:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1061,7 +1065,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1121,7 +1125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$O$8:$O$24</c:f>
+              <c:f>'total diffusion'!$O$8:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1398,7 +1402,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1458,7 +1462,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$8:$E$24</c:f>
+              <c:f>'total diffusion'!$E$8:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1555,7 +1559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1615,7 +1619,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$8:$J$24</c:f>
+              <c:f>'total diffusion'!$J$8:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1712,7 +1716,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1772,7 +1776,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$8:$G$24</c:f>
+              <c:f>'total diffusion'!$G$8:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2192,7 +2196,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2252,7 +2256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$8:$F$24</c:f>
+              <c:f>'total diffusion'!$F$8:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2346,7 +2350,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2406,7 +2410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$K$8:$K$24</c:f>
+              <c:f>'total diffusion'!$K$8:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2500,7 +2504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2560,7 +2564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$8:$H$24</c:f>
+              <c:f>'total diffusion'!$H$8:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2834,7 +2838,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$29:$D$45</c:f>
+              <c:f>'total diffusion'!$D$29:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2894,7 +2898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$29:$N$45</c:f>
+              <c:f>'total diffusion'!$N$29:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2988,7 +2992,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$29:$D$45</c:f>
+              <c:f>'total diffusion'!$D$29:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3048,7 +3052,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$O$29:$O$45</c:f>
+              <c:f>'total diffusion'!$O$29:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3323,7 +3327,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3383,7 +3387,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$29:$E$45</c:f>
+              <c:f>'total diffusion'!$E$29:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3477,7 +3481,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3537,7 +3541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$29:$J$45</c:f>
+              <c:f>'total diffusion'!$J$29:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3631,7 +3635,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3691,7 +3695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$29:$G$45</c:f>
+              <c:f>'total diffusion'!$G$29:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3966,7 +3970,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4026,7 +4030,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$29:$F$45</c:f>
+              <c:f>'total diffusion'!$F$29:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4120,7 +4124,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4180,7 +4184,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$K$29:$K$45</c:f>
+              <c:f>'total diffusion'!$K$29:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4274,7 +4278,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$8:$D$24</c:f>
+              <c:f>'total diffusion'!$D$8:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4334,7 +4338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$29:$H$45</c:f>
+              <c:f>'total diffusion'!$H$29:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4559,6 +4563,386 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'constant Kiv'!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'constant Kiv'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.8099999999999991E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0699999999999988E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2099999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2300000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8999999999999994E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2999999999999999E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7174-5F4A-AA0F-64653EE1BF40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'constant Kiv'!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'constant Kiv'!$J$5:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.744E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4210000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3389999999999994E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6709999999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1769999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5489999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.339E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6539999999999997E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7174-5F4A-AA0F-64653EE1BF40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="273167791"/>
+        <c:axId val="272892191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="273167791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272892191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="272892191"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273167791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4611,7 +4995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$C$22</c:f>
+              <c:f>'RED data'!$C$15:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4644,7 +5028,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$15:$I$22</c:f>
+              <c:f>'RED data'!$I$15:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4714,7 +5098,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:f>'RED data'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4747,7 +5131,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$12</c:f>
+              <c:f>'RED data'!$I$5:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4817,7 +5201,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$32</c:f>
+              <c:f>'RED data'!$C$25:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4850,7 +5234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$25:$I$32</c:f>
+              <c:f>'RED data'!$I$25:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4917,7 +5301,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$C$42</c:f>
+              <c:f>'RED data'!$C$35:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4950,7 +5334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$35:$I$42</c:f>
+              <c:f>'RED data'!$I$35:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5017,7 +5401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$45:$C$52</c:f>
+              <c:f>'RED data'!$C$45:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5050,7 +5434,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$45:$I$52</c:f>
+              <c:f>'RED data'!$I$45:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5117,7 +5501,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$55:$C$62</c:f>
+              <c:f>'RED data'!$C$55:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5150,7 +5534,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$55:$I$62</c:f>
+              <c:f>'RED data'!$I$55:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5448,7 +5832,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$12:$AC$17</c:f>
+              <c:f>'RED data'!$AC$12:$AC$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5475,7 +5859,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$12:$AD$17</c:f>
+              <c:f>'RED data'!$AD$12:$AD$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5716,7 +6100,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:f>'RED data'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5749,7 +6133,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$12</c:f>
+              <c:f>'RED data'!$J$5:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5816,7 +6200,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$C$22</c:f>
+              <c:f>'RED data'!$C$15:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5849,7 +6233,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$15:$J$22</c:f>
+              <c:f>'RED data'!$J$15:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6143,7 +6527,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$8</c:f>
+              <c:f>'RED data'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6164,7 +6548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$5:$P$8</c:f>
+              <c:f>'RED data'!$P$5:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6266,7 +6650,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$12</c:f>
+              <c:f>'RED data'!$E$9:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6287,7 +6671,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$P$12</c:f>
+              <c:f>'RED data'!$P$9:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6676,7 +7060,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$22:$AJ$29</c:f>
+              <c:f>'RED data'!$AJ$22:$AJ$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6709,7 +7093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AK$22:$AK$29</c:f>
+              <c:f>'RED data'!$AK$22:$AK$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6776,7 +7160,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$22:$AJ$29</c:f>
+              <c:f>'RED data'!$AJ$22:$AJ$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6809,7 +7193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$22:$AM$29</c:f>
+              <c:f>'RED data'!$AM$22:$AM$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6876,7 +7260,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$22:$AJ$29</c:f>
+              <c:f>'RED data'!$AJ$22:$AJ$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6909,7 +7293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AO$22:$AO$29</c:f>
+              <c:f>'RED data'!$AO$22:$AO$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7157,7 +7541,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$34:$AJ$41</c:f>
+              <c:f>'RED data'!$AJ$34:$AJ$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7190,7 +7574,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AK$45:$AK$52</c:f>
+              <c:f>'RED data'!$AK$45:$AK$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7233,7 +7617,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$34:$AJ$41</c:f>
+              <c:f>'RED data'!$AJ$34:$AJ$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7266,7 +7650,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AO$45:$AO$52</c:f>
+              <c:f>'RED data'!$AO$45:$AO$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7309,7 +7693,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$22:$AJ$29</c:f>
+              <c:f>'RED data'!$AJ$22:$AJ$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7342,7 +7726,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AK$22:$AK$29</c:f>
+              <c:f>'RED data'!$AK$22:$AK$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7409,7 +7793,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$22:$AJ$29</c:f>
+              <c:f>'RED data'!$AJ$22:$AJ$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7442,7 +7826,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AO$22:$AO$29</c:f>
+              <c:f>'RED data'!$AO$22:$AO$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7732,7 +8116,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$12</c:f>
+              <c:f>'RED data'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7765,7 +8149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$5:$T$12</c:f>
+              <c:f>'RED data'!$T$5:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8016,7 +8400,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$8</c:f>
+              <c:f>'RED data'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8037,7 +8421,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$8</c:f>
+              <c:f>'RED data'!$O$5:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8092,7 +8476,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$12</c:f>
+              <c:f>'RED data'!$E$9:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8113,7 +8497,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$9:$O$12</c:f>
+              <c:f>'RED data'!$O$9:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8171,7 +8555,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$8</c:f>
+              <c:f>'RED data'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8192,7 +8576,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$5:$P$8</c:f>
+              <c:f>'RED data'!$P$5:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8247,7 +8631,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$12</c:f>
+              <c:f>'RED data'!$E$9:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8268,7 +8652,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$P$12</c:f>
+              <c:f>'RED data'!$P$9:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8888,6 +9272,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12305,6 +12729,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17520,6 +18460,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DA9E66-1360-1A49-B77C-203B2DDAD614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17819,17 +18800,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DD1E67-ADEB-1A43-89D2-D807DE3FD994}">
   <dimension ref="B1:AP63"/>
   <sheetViews>
-    <sheetView topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="K5" activeCellId="1" sqref="E5:E12 K5:K12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.5" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12.1640625" customWidth="1"/>
-    <col min="31" max="31" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -22536,6 +23521,7 @@
     <sortCondition ref="AC12:AC17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -22544,7 +23530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3987C3D3-E460-544A-834C-EC7269D6D64D}">
   <dimension ref="C2:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32:C35"/>
     </sheetView>
   </sheetViews>
@@ -24228,4 +25214,528 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472BC580-6850-EC45-A01D-9CE9AAC3F766}">
+  <dimension ref="B2:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <f>1/C5</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E5">
+        <f>1/((0.000086173)*C5)</f>
+        <v>11.604562914137839</v>
+      </c>
+      <c r="F5">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.6744</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I5">
+        <f>F5*H5</f>
+        <v>8.8099999999999991E-9</v>
+      </c>
+      <c r="J5">
+        <f>G5*H5</f>
+        <v>6.744E-8</v>
+      </c>
+      <c r="K5">
+        <f>(2000*0.000000000401)*EXP(-0.522*E5)</f>
+        <v>1.8767222416006389E-9</v>
+      </c>
+      <c r="L5">
+        <f>(2000*0.0000000000799)*EXP(-0.433*E5)</f>
+        <v>1.0503750506745502E-9</v>
+      </c>
+      <c r="M5">
+        <f>(2000*0.00000000123)*EXP(-0.75*E5)</f>
+        <v>4.0840107654980419E-10</v>
+      </c>
+      <c r="N5">
+        <f>(2000*0.000000000143)*EXP(-0.678*E5)</f>
+        <v>1.0949221315810256E-10</v>
+      </c>
+      <c r="O5">
+        <f>(I5*K5+J5*M5)</f>
+        <v>4.4076491551020419E-17</v>
+      </c>
+      <c r="P5">
+        <f>(I5*L5+J5*N5)</f>
+        <v>1.6637959051825222E-17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D12" si="0">1/C6</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E12" si="1">1/((0.000086173)*C6)</f>
+        <v>12.893958793486487</v>
+      </c>
+      <c r="F6">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I12" si="2">F6*H6</f>
+        <v>8.0699999999999988E-9</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J12" si="3">G6*H6</f>
+        <v>7.4210000000000001E-8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K12" si="4">(2000*0.000000000401)*EXP(-0.522*E6)</f>
+        <v>9.5739628499869752E-10</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L12" si="5">(2000*0.0000000000799)*EXP(-0.433*E6)</f>
+        <v>6.0099953134005551E-10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M12" si="6">(2000*0.00000000123)*EXP(-0.75*E6)</f>
+        <v>1.5527578792143367E-10</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N12" si="7">(2000*0.000000000143)*EXP(-0.678*E6)</f>
+        <v>4.5679198892672476E-11</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O12" si="8">(I6*K6+J6*M6)</f>
+        <v>1.9249204241589082E-17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P12" si="9">(I6*L6+J6*N6)</f>
+        <v>8.2399195677394714E-18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>14.5057036426723</v>
+      </c>
+      <c r="F7">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>7.2099999999999997E-9</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>8.3389999999999994E-8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>4.1276836884592861E-10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2.9907926393675988E-10</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>4.635801386112917E-11</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>1.5315724107031564E-11</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>6.8418547152587059E-18</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>3.4335397262694005E-18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>16.577947020196913</v>
+      </c>
+      <c r="F8">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>6.2300000000000002E-9</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>9.6709999999999997E-8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1.3993465201354922E-10</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>1.2192757885964732E-10</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>9.7983268622687619E-12</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>3.7580455063379915E-12</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>1.8193890728944236E-18</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>1.1230493972135499E-18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>19.340938190229732</v>
+      </c>
+      <c r="F9">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.1177</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000002E-9</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1.1769999999999999E-7</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>3.3078851528425173E-11</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>3.6857240163022951E-11</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>1.2336389100961729E-12</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>5.7729088666488944E-13</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>3.1390144251328789E-19</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>2.5591906219187452E-19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>23.209125828275678</v>
+      </c>
+      <c r="F10">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>3.8999999999999994E-9</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1.5489999999999999E-7</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>4.3916288929158682E-12</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>6.9041786425504617E-12</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>6.7801398100422372E-14</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>4.1917988609298501E-14</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>2.7629789248127309E-20</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>3.3419393141527137E-20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>29.0114072853446</v>
+      </c>
+      <c r="F11">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G11">
+        <v>0.2339</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999997E-9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>2.339E-7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>2.1244105526150701E-13</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>5.5975222851660861E-13</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>8.7360384111733513E-16</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>8.2017973749198517E-16</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>7.5668268211726283E-22</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>1.6471958347425575E-21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>5E+20</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>38.681876380459464</v>
+      </c>
+      <c r="F12">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G12">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999999E-9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>4.6539999999999997E-7</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>1.3643521426927635E-15</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>8.50097717418493E-15</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>6.1864429288750962E-19</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>1.1652614259662035E-18</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>2.0615748394104392E-24</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="9"/>
+        <v>1.1593582994085078E-23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/USHPRR/RED.xlsx
+++ b/USHPRR/RED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7794E72B-E1F8-8749-9777-13C4B27FBF16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19825EEC-49DA-2545-8DE5-72A76187A4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2700" windowWidth="33760" windowHeight="22720" activeTab="2" xr2:uid="{6717AD8C-574E-F14A-9669-DA5424F212C2}"/>
+    <workbookView xWindow="16720" yWindow="2060" windowWidth="33760" windowHeight="22720" xr2:uid="{6717AD8C-574E-F14A-9669-DA5424F212C2}"/>
   </bookViews>
   <sheets>
     <sheet name="RED data" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -311,6 +312,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6556,10 +6558,10 @@
                   <c:v>4.4018098729438321E-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8801938896438072E-18</c:v>
+                  <c:v>2.8801938896438068E-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7427915502181168E-18</c:v>
+                  <c:v>1.7427915502181164E-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.2292108015007437E-19</c:v>
@@ -6679,13 +6681,13 @@
                   <c:v>2.5591906219187452E-19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1342962411815573E-20</c:v>
+                  <c:v>2.134296241181557E-20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7843490646786919E-22</c:v>
+                  <c:v>6.784349064678691E-22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5627117863110645E-24</c:v>
+                  <c:v>3.5627117863110637E-24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8584,10 +8586,10 @@
                   <c:v>4.4018098729438321E-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8801938896438072E-18</c:v>
+                  <c:v>2.8801938896438068E-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7427915502181168E-18</c:v>
+                  <c:v>1.7427915502181164E-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.2292108015007437E-19</c:v>
@@ -8660,13 +8662,13 @@
                   <c:v>2.5591906219187452E-19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1342962411815573E-20</c:v>
+                  <c:v>2.134296241181557E-20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7843490646786919E-22</c:v>
+                  <c:v>6.784349064678691E-22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5627117863110645E-24</c:v>
+                  <c:v>3.5627117863110637E-24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18800,11 +18802,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DD1E67-ADEB-1A43-89D2-D807DE3FD994}">
   <dimension ref="B1:AP63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="13.5" bestFit="1" customWidth="1"/>
@@ -18817,8 +18819,25 @@
     <col min="36" max="42" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:37" ht="17" thickBot="1">
+      <c r="K1" s="19">
+        <f>2000*0.000000000401</f>
+        <v>8.0200000000000001E-7</v>
+      </c>
+      <c r="L1" s="19">
+        <f>2000*0.0000000000799</f>
+        <v>1.5980000000000001E-7</v>
+      </c>
+      <c r="M1" s="19">
+        <f>2000*0.00000000123</f>
+        <v>2.4600000000000002E-6</v>
+      </c>
+      <c r="N1" s="19">
+        <f>2000*0.000000000143</f>
+        <v>2.8599999999999999E-7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:37">
       <c r="K2" t="s">
         <v>19</v>
       </c>
@@ -18833,7 +18852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:37">
       <c r="R3" s="10"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -18846,7 +18865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:37">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -18915,7 +18934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:37">
       <c r="B5" s="1">
         <v>5E+20</v>
       </c>
@@ -18948,19 +18967,19 @@
         <v>1.7849999999999998E-8</v>
       </c>
       <c r="K5">
-        <f>(2000*0.000000000401)*EXP(-0.522*E5)</f>
+        <f>(0.000000802)*EXP(-0.522*E5)</f>
         <v>1.8767222416006389E-9</v>
       </c>
       <c r="L5">
-        <f>(2000*0.0000000000799)*EXP(-0.433*E5)</f>
-        <v>1.0503750506745502E-9</v>
+        <f>(0.0000001598)*EXP(-0.433*E5)</f>
+        <v>1.05037505067455E-9</v>
       </c>
       <c r="M5">
-        <f>(2000*0.00000000123)*EXP(-0.75*E5)</f>
+        <f>(0.00000246)*EXP(-0.75*E5)</f>
         <v>4.0840107654980419E-10</v>
       </c>
       <c r="N5">
-        <f>(2000*0.000000000143)*EXP(-0.678*E5)</f>
+        <f>(0.000000286)*EXP(-0.678*E5)</f>
         <v>1.0949221315810256E-10</v>
       </c>
       <c r="O5">
@@ -19010,7 +19029,7 @@
         <v>8.8157271849245168E-11</v>
       </c>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:37">
       <c r="B6" s="1">
         <v>5E+20</v>
       </c>
@@ -19043,19 +19062,19 @@
         <v>2.5950000000000001E-8</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K12" si="4">(2000*0.000000000401)*EXP(-0.522*E6)</f>
+        <f t="shared" ref="K6:K12" si="4">(0.000000802)*EXP(-0.522*E6)</f>
         <v>9.5739628499869752E-10</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L12" si="5">(2000*0.0000000000799)*EXP(-0.433*E6)</f>
-        <v>6.0099953134005551E-10</v>
+        <f t="shared" ref="L6:L12" si="5">(0.0000001598)*EXP(-0.433*E6)</f>
+        <v>6.0099953134005541E-10</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M12" si="6">(2000*0.00000000123)*EXP(-0.75*E6)</f>
+        <f t="shared" ref="M6:M12" si="6">(0.00000246)*EXP(-0.75*E6)</f>
         <v>1.5527578792143367E-10</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N12" si="7">(2000*0.000000000143)*EXP(-0.678*E6)</f>
+        <f t="shared" ref="N6:N12" si="7">(0.000000286)*EXP(-0.678*E6)</f>
         <v>4.5679198892672476E-11</v>
       </c>
       <c r="O6">
@@ -19064,7 +19083,7 @@
       </c>
       <c r="P6">
         <f t="shared" ref="P6:P12" si="9">(I6*L6+J6*N6)</f>
-        <v>2.8801938896438072E-18</v>
+        <v>2.8801938896438068E-18</v>
       </c>
       <c r="R6" s="10">
         <f t="shared" ref="R6:R12" si="10" xml:space="preserve"> 0.000000000392*EXP(-0.523/(0.000086173)/C6)</f>
@@ -19105,7 +19124,7 @@
         <v>8.8126581743317947E-11</v>
       </c>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:37">
       <c r="B7" s="1">
         <v>5E+20</v>
       </c>
@@ -19143,7 +19162,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.9907926393675988E-10</v>
+        <v>2.9907926393675982E-10</v>
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
@@ -19159,7 +19178,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="9"/>
-        <v>1.7427915502181168E-18</v>
+        <v>1.7427915502181164E-18</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" si="10"/>
@@ -19200,7 +19219,7 @@
         <v>8.7939694885153346E-11</v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:37">
       <c r="B8" s="1">
         <v>5E+20</v>
       </c>
@@ -19238,7 +19257,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>1.2192757885964732E-10</v>
+        <v>1.2192757885964729E-10</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -19295,7 +19314,7 @@
         <v>8.836019451648784E-11</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:37">
       <c r="B9" s="1">
         <v>5E+20</v>
       </c>
@@ -19333,7 +19352,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
-        <v>3.6857240163022951E-11</v>
+        <v>3.6857240163022945E-11</v>
       </c>
       <c r="M9">
         <f t="shared" si="6"/>
@@ -19390,7 +19409,7 @@
         <v>8.7869357239000965E-11</v>
       </c>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:37">
       <c r="B10" s="1">
         <v>5E+20</v>
       </c>
@@ -19428,7 +19447,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
-        <v>6.9041786425504617E-12</v>
+        <v>6.9041786425504601E-12</v>
       </c>
       <c r="M10">
         <f t="shared" si="6"/>
@@ -19444,7 +19463,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="9"/>
-        <v>2.1342962411815573E-20</v>
+        <v>2.134296241181557E-20</v>
       </c>
       <c r="R10" s="10">
         <f t="shared" si="10"/>
@@ -19485,7 +19504,7 @@
         <v>8.8303217767825011E-11</v>
       </c>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:37">
       <c r="B11" s="1">
         <v>5E+20</v>
       </c>
@@ -19523,7 +19542,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>5.5975222851660861E-13</v>
+        <v>5.5975222851660851E-13</v>
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
@@ -19539,7 +19558,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="9"/>
-        <v>6.7843490646786919E-22</v>
+        <v>6.784349064678691E-22</v>
       </c>
       <c r="R11" s="10">
         <f t="shared" si="10"/>
@@ -19580,7 +19599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:37">
       <c r="B12" s="1">
         <v>5E+20</v>
       </c>
@@ -19618,7 +19637,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
-        <v>8.50097717418493E-15</v>
+        <v>8.5009771741849285E-15</v>
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
@@ -19634,7 +19653,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="9"/>
-        <v>3.5627117863110645E-24</v>
+        <v>3.5627117863110637E-24</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" si="10"/>
@@ -19684,7 +19703,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:37">
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -19718,7 +19737,7 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:37">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -19785,7 +19804,7 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:37">
       <c r="B15" s="1">
         <v>2.5E+20</v>
       </c>
@@ -19883,7 +19902,7 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:37">
       <c r="B16" s="1">
         <v>2.5E+20</v>
       </c>
@@ -19981,7 +20000,7 @@
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:42">
       <c r="B17" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20079,7 +20098,7 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:42">
       <c r="B18" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20166,7 +20185,7 @@
         <v>5.2763476673268354E-11</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:42">
       <c r="B19" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20240,7 +20259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:42">
       <c r="B20" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20314,7 +20333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:42">
       <c r="B21" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20409,7 +20428,7 @@
         <v>1.2E+21</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:42">
       <c r="B22" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20514,7 +20533,7 @@
         <v>2.124951156616235E-17</v>
       </c>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:42">
       <c r="R23" s="10"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
@@ -20552,7 +20571,7 @@
         <v>1.249217948974349E-17</v>
       </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:42">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -20623,7 +20642,7 @@
         <v>6.4305748135428252E-18</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:42">
       <c r="B25" s="1">
         <v>7.5E+20</v>
       </c>
@@ -20725,7 +20744,7 @@
         <v>2.7381969553167055E-18</v>
       </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:42">
       <c r="B26" s="1">
         <v>7.5E+20</v>
       </c>
@@ -20827,7 +20846,7 @@
         <v>4.8698528042327955E-19</v>
       </c>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:42">
       <c r="B27" s="1">
         <v>7.5E+20</v>
       </c>
@@ -20929,7 +20948,7 @@
         <v>3.5773494494421244E-20</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:42">
       <c r="B28" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21031,7 +21050,7 @@
         <v>7.1224541599074216E-22</v>
       </c>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:42">
       <c r="B29" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21133,7 +21152,7 @@
         <v>1.0417019835977304E-24</v>
       </c>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:42">
       <c r="B30" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21204,7 +21223,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="12"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:42">
       <c r="B31" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21278,7 +21297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:42">
       <c r="B32" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21352,7 +21371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:42">
       <c r="R33" s="10"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -21383,7 +21402,7 @@
         <v>1.2E+21</v>
       </c>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:42">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -21454,7 +21473,7 @@
         <v>8.0148200506182963E-18</v>
       </c>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:42">
       <c r="B35" s="1">
         <v>2E+20</v>
       </c>
@@ -21556,7 +21575,7 @@
         <v>5.3532905290371825E-18</v>
       </c>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:42">
       <c r="B36" s="1">
         <v>2E+20</v>
       </c>
@@ -21658,7 +21677,7 @@
         <v>3.2324335874773147E-18</v>
       </c>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42">
       <c r="B37" s="1">
         <v>2E+20</v>
       </c>
@@ -21760,7 +21779,7 @@
         <v>1.6898218497628266E-18</v>
       </c>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:42">
       <c r="B38" s="1">
         <v>2E+20</v>
       </c>
@@ -21862,7 +21881,7 @@
         <v>3.9937213237522758E-19</v>
       </c>
     </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:42">
       <c r="B39" s="1">
         <v>2E+20</v>
       </c>
@@ -21964,7 +21983,7 @@
         <v>4.3193315649760796E-20</v>
       </c>
     </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:42">
       <c r="B40" s="1">
         <v>2E+20</v>
       </c>
@@ -22066,7 +22085,7 @@
         <v>1.536295371103385E-21</v>
       </c>
     </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:42">
       <c r="B41" s="1">
         <v>2E+20</v>
       </c>
@@ -22168,7 +22187,7 @@
         <v>5.9097850749791053E-24</v>
       </c>
     </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:42">
       <c r="B42" s="1">
         <v>2E+20</v>
       </c>
@@ -22239,14 +22258,14 @@
       <c r="U42" s="11"/>
       <c r="V42" s="12"/>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:42">
       <c r="R43" s="10"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="12"/>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:42">
       <c r="B44" t="s">
         <v>3</v>
       </c>
@@ -22286,7 +22305,7 @@
       <c r="U44" s="11"/>
       <c r="V44" s="12"/>
     </row>
-    <row r="45" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:42">
       <c r="B45" s="1">
         <v>1E+21</v>
       </c>
@@ -22357,7 +22376,7 @@
       <c r="U45" s="11"/>
       <c r="V45" s="12"/>
     </row>
-    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:42">
       <c r="B46" s="1">
         <v>1E+21</v>
       </c>
@@ -22428,7 +22447,7 @@
       <c r="U46" s="11"/>
       <c r="V46" s="12"/>
     </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:42">
       <c r="B47" s="1">
         <v>1E+21</v>
       </c>
@@ -22499,7 +22518,7 @@
       <c r="U47" s="11"/>
       <c r="V47" s="12"/>
     </row>
-    <row r="48" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:42">
       <c r="B48" s="1">
         <v>1E+21</v>
       </c>
@@ -22571,7 +22590,7 @@
       <c r="V48" s="12"/>
       <c r="AO48" s="1"/>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:33">
       <c r="B49" s="1">
         <v>1E+21</v>
       </c>
@@ -22642,7 +22661,7 @@
       <c r="U49" s="11"/>
       <c r="V49" s="12"/>
     </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:33">
       <c r="B50" s="1">
         <v>1E+21</v>
       </c>
@@ -22713,7 +22732,7 @@
       <c r="U50" s="11"/>
       <c r="V50" s="12"/>
     </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:33">
       <c r="B51" s="1">
         <v>1E+21</v>
       </c>
@@ -22784,7 +22803,7 @@
       <c r="U51" s="11"/>
       <c r="V51" s="12"/>
     </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:33">
       <c r="B52" s="1">
         <v>1E+21</v>
       </c>
@@ -22855,7 +22874,7 @@
       <c r="U52" s="11"/>
       <c r="V52" s="12"/>
     </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:33">
       <c r="R53" s="10"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -22865,7 +22884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:33">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -22914,7 +22933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:33">
       <c r="B55" s="1">
         <v>1.5E+21</v>
       </c>
@@ -22994,7 +23013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:33">
       <c r="B56" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23074,7 +23093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:33">
       <c r="B57" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23154,7 +23173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:33">
       <c r="B58" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23225,7 +23244,7 @@
       <c r="U58" s="11"/>
       <c r="V58" s="12"/>
     </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:33">
       <c r="B59" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23296,7 +23315,7 @@
       <c r="U59" s="11"/>
       <c r="V59" s="12"/>
     </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:33">
       <c r="B60" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23367,7 +23386,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="12"/>
     </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:33">
       <c r="B61" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23438,7 +23457,7 @@
       <c r="U61" s="11"/>
       <c r="V61" s="12"/>
     </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:33">
       <c r="B62" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23509,7 +23528,7 @@
       <c r="U62" s="11"/>
       <c r="V62" s="12"/>
     </row>
-    <row r="63" spans="2:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:33" ht="17" thickBot="1">
       <c r="R63" s="13"/>
       <c r="S63" s="14"/>
       <c r="T63" s="14"/>
@@ -23531,12 +23550,12 @@
   <dimension ref="C2:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C35"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:15">
       <c r="N2" t="s">
         <v>37</v>
       </c>
@@ -23544,7 +23563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:15">
       <c r="G3" s="1">
         <f>G5*500000000000000000000</f>
         <v>1.3104166666666667E-20</v>
@@ -23556,7 +23575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:15">
       <c r="N4" t="s">
         <v>39</v>
       </c>
@@ -23564,7 +23583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:15">
       <c r="G5" s="2">
         <v>2.6208333333333334E-41</v>
       </c>
@@ -23581,7 +23600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:15">
       <c r="G6" s="1">
         <v>1.3104166666666667E-20</v>
       </c>
@@ -23592,7 +23611,7 @@
         <v>5E+20</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:15">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -23624,7 +23643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:15">
       <c r="C8" s="3">
         <v>300</v>
       </c>
@@ -23669,7 +23688,7 @@
         <v>1.3462148083195844E-20</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:15">
       <c r="C9" s="3">
         <v>350</v>
       </c>
@@ -23714,7 +23733,7 @@
         <v>1.3549831134524341E-20</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:15">
       <c r="C10" s="3">
         <v>400</v>
       </c>
@@ -23759,7 +23778,7 @@
         <v>1.4450007733636136E-20</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:15">
       <c r="C11" s="3">
         <v>450</v>
       </c>
@@ -23804,7 +23823,7 @@
         <v>1.9787359273233155E-20</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:15">
       <c r="C12" s="3">
         <v>500</v>
       </c>
@@ -23849,7 +23868,7 @@
         <v>4.1339723971148136E-20</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:15">
       <c r="C13" s="3">
         <v>550</v>
       </c>
@@ -23894,7 +23913,7 @@
         <v>1.0727185735003278E-19</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:15">
       <c r="C14" s="5">
         <v>600</v>
       </c>
@@ -23939,7 +23958,7 @@
         <v>2.7171132404747822E-19</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:15">
       <c r="C15" s="5">
         <v>650</v>
       </c>
@@ -23984,7 +24003,7 @@
         <v>6.2852023918606187E-19</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:15">
       <c r="C16" s="3">
         <v>700</v>
       </c>
@@ -24029,7 +24048,7 @@
         <v>1.2104238663082464E-18</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15">
       <c r="C17" s="3">
         <v>750</v>
       </c>
@@ -24074,7 +24093,7 @@
         <v>2.4918489806380016E-18</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15">
       <c r="C18" s="3">
         <v>800</v>
       </c>
@@ -24119,7 +24138,7 @@
         <v>8.3952402866156913E-18</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15">
       <c r="C19" s="3">
         <v>850</v>
       </c>
@@ -24164,7 +24183,7 @@
         <v>3.6548571494391588E-17</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15">
       <c r="C20" s="3">
         <v>900</v>
       </c>
@@ -24209,7 +24228,7 @@
         <v>1.541151162493853E-16</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15">
       <c r="C21" s="3">
         <v>950</v>
       </c>
@@ -24254,7 +24273,7 @@
         <v>5.778300874038809E-16</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15">
       <c r="C22" s="3">
         <v>1000</v>
       </c>
@@ -24299,7 +24318,7 @@
         <v>1.9155401869646809E-15</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15">
       <c r="C23" s="3">
         <v>1050</v>
       </c>
@@ -24344,7 +24363,7 @@
         <v>5.6802338042929697E-15</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15">
       <c r="C24" s="3">
         <v>1100</v>
       </c>
@@ -24389,7 +24408,7 @@
         <v>1.5272168928829671E-14</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15">
       <c r="G26" s="2">
         <v>2.6208333333333334E-41</v>
       </c>
@@ -24400,7 +24419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15">
       <c r="G27" s="1">
         <f>G26*J27</f>
         <v>1.3104166666666666E-22</v>
@@ -24413,7 +24432,7 @@
         <v>5E+18</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -24445,7 +24464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15">
       <c r="C29" s="3">
         <v>300</v>
       </c>
@@ -24490,7 +24509,7 @@
         <v>1.3496480831958434E-22</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15">
       <c r="C30" s="3">
         <v>350</v>
       </c>
@@ -24535,7 +24554,7 @@
         <v>1.4373311345306038E-22</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15">
       <c r="C31" s="3">
         <v>400</v>
       </c>
@@ -24580,7 +24599,7 @@
         <v>2.3375077556529344E-22</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15">
       <c r="C32" s="3">
         <v>450</v>
       </c>
@@ -24625,7 +24644,7 @@
         <v>7.6748718811523761E-22</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15">
       <c r="C33" s="3">
         <v>500</v>
       </c>
@@ -24670,7 +24689,7 @@
         <v>2.9229251442975726E-21</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15">
       <c r="C34" s="3">
         <v>550</v>
       </c>
@@ -24715,7 +24734,7 @@
         <v>9.5288812314452344E-21</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15">
       <c r="C35" s="5">
         <v>600</v>
       </c>
@@ -24760,7 +24779,7 @@
         <v>2.637333140318815E-20</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15">
       <c r="C36" s="5">
         <v>650</v>
       </c>
@@ -24805,7 +24824,7 @@
         <v>6.9390634895945451E-20</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15">
       <c r="C37" s="3">
         <v>700</v>
       </c>
@@ -24850,7 +24869,7 @@
         <v>2.1540233397992046E-19</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:15">
       <c r="C38" s="3">
         <v>750</v>
       </c>
@@ -24895,7 +24914,7 @@
         <v>1.0910930048169887E-18</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15">
       <c r="C39" s="3">
         <v>800</v>
       </c>
@@ -24940,7 +24959,7 @@
         <v>6.5040423188125209E-18</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:15">
       <c r="C40" s="3">
         <v>850</v>
       </c>
@@ -24985,7 +25004,7 @@
         <v>3.4082482634992529E-17</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:15">
       <c r="C41" s="3">
         <v>900</v>
       </c>
@@ -25030,7 +25049,7 @@
         <v>1.5099181173942965E-16</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:15">
       <c r="C42" s="3">
         <v>950</v>
       </c>
@@ -25075,7 +25094,7 @@
         <v>5.7397078712254967E-16</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:15">
       <c r="C43" s="3">
         <v>1000</v>
       </c>
@@ -25120,7 +25139,7 @@
         <v>1.9108706735278472E-15</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:15">
       <c r="C44" s="3">
         <v>1050</v>
       </c>
@@ -25165,7 +25184,7 @@
         <v>5.6746850978897569E-15</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:15">
       <c r="C45" s="3">
         <v>1100</v>
       </c>
@@ -25220,18 +25239,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472BC580-6850-EC45-A01D-9CE9AAC3F766}">
   <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16">
       <c r="B2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -25278,7 +25297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16">
       <c r="B5" s="1">
         <v>5E+20</v>
       </c>
@@ -25335,7 +25354,7 @@
         <v>1.6637959051825222E-17</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>5E+20</v>
       </c>
@@ -25392,7 +25411,7 @@
         <v>8.2399195677394714E-18</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>5E+20</v>
       </c>
@@ -25449,7 +25468,7 @@
         <v>3.4335397262694005E-18</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16">
       <c r="B8" s="1">
         <v>5E+20</v>
       </c>
@@ -25506,7 +25525,7 @@
         <v>1.1230493972135499E-18</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16">
       <c r="B9" s="1">
         <v>5E+20</v>
       </c>
@@ -25563,7 +25582,7 @@
         <v>2.5591906219187452E-19</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16">
       <c r="B10" s="1">
         <v>5E+20</v>
       </c>
@@ -25620,7 +25639,7 @@
         <v>3.3419393141527137E-20</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16">
       <c r="B11" s="1">
         <v>5E+20</v>
       </c>
@@ -25677,7 +25696,7 @@
         <v>1.6471958347425575E-21</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16">
       <c r="B12" s="1">
         <v>5E+20</v>
       </c>

--- a/USHPRR/RED.xlsx
+++ b/USHPRR/RED.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19825EEC-49DA-2545-8DE5-72A76187A4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C094BA-368B-C641-9D79-97D33C4807A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16720" yWindow="2060" windowWidth="33760" windowHeight="22720" xr2:uid="{6717AD8C-574E-F14A-9669-DA5424F212C2}"/>
   </bookViews>
@@ -17,10 +17,19 @@
     <sheet name="total diffusion" sheetId="2" r:id="rId2"/>
     <sheet name="constant Kiv" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -175,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -18802,11 +18811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DD1E67-ADEB-1A43-89D2-D807DE3FD994}">
   <dimension ref="B1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="13.5" bestFit="1" customWidth="1"/>
@@ -18819,7 +18828,7 @@
     <col min="36" max="42" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="17" thickBot="1">
+    <row r="1" spans="2:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K1" s="19">
         <f>2000*0.000000000401</f>
         <v>8.0200000000000001E-7</v>
@@ -18837,7 +18846,7 @@
         <v>2.8599999999999999E-7</v>
       </c>
     </row>
-    <row r="2" spans="2:37">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>19</v>
       </c>
@@ -18852,7 +18861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:37">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
       <c r="R3" s="10"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -18865,7 +18874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:37">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -18934,7 +18943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:37">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>5E+20</v>
       </c>
@@ -19029,7 +19038,7 @@
         <v>8.8157271849245168E-11</v>
       </c>
     </row>
-    <row r="6" spans="2:37">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5E+20</v>
       </c>
@@ -19124,7 +19133,7 @@
         <v>8.8126581743317947E-11</v>
       </c>
     </row>
-    <row r="7" spans="2:37">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5E+20</v>
       </c>
@@ -19219,7 +19228,7 @@
         <v>8.7939694885153346E-11</v>
       </c>
     </row>
-    <row r="8" spans="2:37">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5E+20</v>
       </c>
@@ -19314,7 +19323,7 @@
         <v>8.836019451648784E-11</v>
       </c>
     </row>
-    <row r="9" spans="2:37">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>5E+20</v>
       </c>
@@ -19409,7 +19418,7 @@
         <v>8.7869357239000965E-11</v>
       </c>
     </row>
-    <row r="10" spans="2:37">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>5E+20</v>
       </c>
@@ -19504,7 +19513,7 @@
         <v>8.8303217767825011E-11</v>
       </c>
     </row>
-    <row r="11" spans="2:37">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>5E+20</v>
       </c>
@@ -19599,7 +19608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:37">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>5E+20</v>
       </c>
@@ -19703,7 +19712,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="2:37">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -19737,7 +19746,7 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="2:37">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -19804,7 +19813,7 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="2:37">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>2.5E+20</v>
       </c>
@@ -19902,7 +19911,7 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="2:37">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20000,7 +20009,7 @@
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="2:42">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20098,7 +20107,7 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="2:42">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20185,7 +20194,7 @@
         <v>5.2763476673268354E-11</v>
       </c>
     </row>
-    <row r="19" spans="2:42">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20259,7 +20268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20333,7 +20342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:42">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20428,7 +20437,7 @@
         <v>1.2E+21</v>
       </c>
     </row>
-    <row r="22" spans="2:42">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>2.5E+20</v>
       </c>
@@ -20533,7 +20542,7 @@
         <v>2.124951156616235E-17</v>
       </c>
     </row>
-    <row r="23" spans="2:42">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
       <c r="R23" s="10"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
@@ -20571,7 +20580,7 @@
         <v>1.249217948974349E-17</v>
       </c>
     </row>
-    <row r="24" spans="2:42">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -20642,7 +20651,7 @@
         <v>6.4305748135428252E-18</v>
       </c>
     </row>
-    <row r="25" spans="2:42">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>7.5E+20</v>
       </c>
@@ -20744,7 +20753,7 @@
         <v>2.7381969553167055E-18</v>
       </c>
     </row>
-    <row r="26" spans="2:42">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>7.5E+20</v>
       </c>
@@ -20846,7 +20855,7 @@
         <v>4.8698528042327955E-19</v>
       </c>
     </row>
-    <row r="27" spans="2:42">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>7.5E+20</v>
       </c>
@@ -20948,7 +20957,7 @@
         <v>3.5773494494421244E-20</v>
       </c>
     </row>
-    <row r="28" spans="2:42">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21050,7 +21059,7 @@
         <v>7.1224541599074216E-22</v>
       </c>
     </row>
-    <row r="29" spans="2:42">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21152,7 +21161,7 @@
         <v>1.0417019835977304E-24</v>
       </c>
     </row>
-    <row r="30" spans="2:42">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21223,7 +21232,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="12"/>
     </row>
-    <row r="31" spans="2:42">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21297,7 +21306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:42">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>7.5E+20</v>
       </c>
@@ -21371,7 +21380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:42">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="R33" s="10"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -21402,7 +21411,7 @@
         <v>1.2E+21</v>
       </c>
     </row>
-    <row r="34" spans="2:42">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -21473,7 +21482,7 @@
         <v>8.0148200506182963E-18</v>
       </c>
     </row>
-    <row r="35" spans="2:42">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>2E+20</v>
       </c>
@@ -21575,7 +21584,7 @@
         <v>5.3532905290371825E-18</v>
       </c>
     </row>
-    <row r="36" spans="2:42">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>2E+20</v>
       </c>
@@ -21677,7 +21686,7 @@
         <v>3.2324335874773147E-18</v>
       </c>
     </row>
-    <row r="37" spans="2:42">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>2E+20</v>
       </c>
@@ -21779,7 +21788,7 @@
         <v>1.6898218497628266E-18</v>
       </c>
     </row>
-    <row r="38" spans="2:42">
+    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>2E+20</v>
       </c>
@@ -21881,7 +21890,7 @@
         <v>3.9937213237522758E-19</v>
       </c>
     </row>
-    <row r="39" spans="2:42">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>2E+20</v>
       </c>
@@ -21983,7 +21992,7 @@
         <v>4.3193315649760796E-20</v>
       </c>
     </row>
-    <row r="40" spans="2:42">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>2E+20</v>
       </c>
@@ -22085,7 +22094,7 @@
         <v>1.536295371103385E-21</v>
       </c>
     </row>
-    <row r="41" spans="2:42">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>2E+20</v>
       </c>
@@ -22187,7 +22196,7 @@
         <v>5.9097850749791053E-24</v>
       </c>
     </row>
-    <row r="42" spans="2:42">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>2E+20</v>
       </c>
@@ -22258,14 +22267,14 @@
       <c r="U42" s="11"/>
       <c r="V42" s="12"/>
     </row>
-    <row r="43" spans="2:42">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
       <c r="R43" s="10"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="12"/>
     </row>
-    <row r="44" spans="2:42">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>3</v>
       </c>
@@ -22305,7 +22314,7 @@
       <c r="U44" s="11"/>
       <c r="V44" s="12"/>
     </row>
-    <row r="45" spans="2:42">
+    <row r="45" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>1E+21</v>
       </c>
@@ -22376,7 +22385,7 @@
       <c r="U45" s="11"/>
       <c r="V45" s="12"/>
     </row>
-    <row r="46" spans="2:42">
+    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>1E+21</v>
       </c>
@@ -22447,7 +22456,7 @@
       <c r="U46" s="11"/>
       <c r="V46" s="12"/>
     </row>
-    <row r="47" spans="2:42">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>1E+21</v>
       </c>
@@ -22518,7 +22527,7 @@
       <c r="U47" s="11"/>
       <c r="V47" s="12"/>
     </row>
-    <row r="48" spans="2:42">
+    <row r="48" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>1E+21</v>
       </c>
@@ -22590,7 +22599,7 @@
       <c r="V48" s="12"/>
       <c r="AO48" s="1"/>
     </row>
-    <row r="49" spans="2:33">
+    <row r="49" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>1E+21</v>
       </c>
@@ -22661,7 +22670,7 @@
       <c r="U49" s="11"/>
       <c r="V49" s="12"/>
     </row>
-    <row r="50" spans="2:33">
+    <row r="50" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>1E+21</v>
       </c>
@@ -22732,7 +22741,7 @@
       <c r="U50" s="11"/>
       <c r="V50" s="12"/>
     </row>
-    <row r="51" spans="2:33">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>1E+21</v>
       </c>
@@ -22803,7 +22812,7 @@
       <c r="U51" s="11"/>
       <c r="V51" s="12"/>
     </row>
-    <row r="52" spans="2:33">
+    <row r="52" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>1E+21</v>
       </c>
@@ -22874,7 +22883,7 @@
       <c r="U52" s="11"/>
       <c r="V52" s="12"/>
     </row>
-    <row r="53" spans="2:33">
+    <row r="53" spans="2:33" x14ac:dyDescent="0.2">
       <c r="R53" s="10"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -22884,7 +22893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:33">
+    <row r="54" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -22933,7 +22942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:33">
+    <row r="55" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23013,7 +23022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:33">
+    <row r="56" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23093,7 +23102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:33">
+    <row r="57" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23173,7 +23182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:33">
+    <row r="58" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23244,7 +23253,7 @@
       <c r="U58" s="11"/>
       <c r="V58" s="12"/>
     </row>
-    <row r="59" spans="2:33">
+    <row r="59" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23315,7 +23324,7 @@
       <c r="U59" s="11"/>
       <c r="V59" s="12"/>
     </row>
-    <row r="60" spans="2:33">
+    <row r="60" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23386,7 +23395,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="12"/>
     </row>
-    <row r="61" spans="2:33">
+    <row r="61" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23457,7 +23466,7 @@
       <c r="U61" s="11"/>
       <c r="V61" s="12"/>
     </row>
-    <row r="62" spans="2:33">
+    <row r="62" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>1.5E+21</v>
       </c>
@@ -23528,7 +23537,7 @@
       <c r="U62" s="11"/>
       <c r="V62" s="12"/>
     </row>
-    <row r="63" spans="2:33" ht="17" thickBot="1">
+    <row r="63" spans="2:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R63" s="13"/>
       <c r="S63" s="14"/>
       <c r="T63" s="14"/>
@@ -23536,7 +23545,7 @@
       <c r="V63" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="AC12:AE17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC12:AE17">
     <sortCondition ref="AC12:AC17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23553,9 +23562,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:15">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
         <v>37</v>
       </c>
@@ -23563,7 +23572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="3:15">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
       <c r="G3" s="1">
         <f>G5*500000000000000000000</f>
         <v>1.3104166666666667E-20</v>
@@ -23575,7 +23584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>39</v>
       </c>
@@ -23583,7 +23592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
       <c r="G5" s="2">
         <v>2.6208333333333334E-41</v>
       </c>
@@ -23600,7 +23609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="G6" s="1">
         <v>1.3104166666666667E-20</v>
       </c>
@@ -23611,7 +23620,7 @@
         <v>5E+20</v>
       </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -23643,7 +23652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>300</v>
       </c>
@@ -23688,7 +23697,7 @@
         <v>1.3462148083195844E-20</v>
       </c>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>350</v>
       </c>
@@ -23733,7 +23742,7 @@
         <v>1.3549831134524341E-20</v>
       </c>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>400</v>
       </c>
@@ -23778,7 +23787,7 @@
         <v>1.4450007733636136E-20</v>
       </c>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>450</v>
       </c>
@@ -23823,7 +23832,7 @@
         <v>1.9787359273233155E-20</v>
       </c>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>500</v>
       </c>
@@ -23868,7 +23877,7 @@
         <v>4.1339723971148136E-20</v>
       </c>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>550</v>
       </c>
@@ -23913,7 +23922,7 @@
         <v>1.0727185735003278E-19</v>
       </c>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <v>600</v>
       </c>
@@ -23958,7 +23967,7 @@
         <v>2.7171132404747822E-19</v>
       </c>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <v>650</v>
       </c>
@@ -24003,7 +24012,7 @@
         <v>6.2852023918606187E-19</v>
       </c>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>700</v>
       </c>
@@ -24048,7 +24057,7 @@
         <v>1.2104238663082464E-18</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>750</v>
       </c>
@@ -24093,7 +24102,7 @@
         <v>2.4918489806380016E-18</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>800</v>
       </c>
@@ -24138,7 +24147,7 @@
         <v>8.3952402866156913E-18</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>850</v>
       </c>
@@ -24183,7 +24192,7 @@
         <v>3.6548571494391588E-17</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>900</v>
       </c>
@@ -24228,7 +24237,7 @@
         <v>1.541151162493853E-16</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>950</v>
       </c>
@@ -24273,7 +24282,7 @@
         <v>5.778300874038809E-16</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>1000</v>
       </c>
@@ -24318,7 +24327,7 @@
         <v>1.9155401869646809E-15</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>1050</v>
       </c>
@@ -24363,7 +24372,7 @@
         <v>5.6802338042929697E-15</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>1100</v>
       </c>
@@ -24408,7 +24417,7 @@
         <v>1.5272168928829671E-14</v>
       </c>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="G26" s="2">
         <v>2.6208333333333334E-41</v>
       </c>
@@ -24419,7 +24428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="G27" s="1">
         <f>G26*J27</f>
         <v>1.3104166666666666E-22</v>
@@ -24432,7 +24441,7 @@
         <v>5E+18</v>
       </c>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -24464,7 +24473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>300</v>
       </c>
@@ -24509,7 +24518,7 @@
         <v>1.3496480831958434E-22</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>350</v>
       </c>
@@ -24554,7 +24563,7 @@
         <v>1.4373311345306038E-22</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>400</v>
       </c>
@@ -24599,7 +24608,7 @@
         <v>2.3375077556529344E-22</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>450</v>
       </c>
@@ -24644,7 +24653,7 @@
         <v>7.6748718811523761E-22</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>500</v>
       </c>
@@ -24689,7 +24698,7 @@
         <v>2.9229251442975726E-21</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>550</v>
       </c>
@@ -24734,7 +24743,7 @@
         <v>9.5288812314452344E-21</v>
       </c>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
         <v>600</v>
       </c>
@@ -24779,7 +24788,7 @@
         <v>2.637333140318815E-20</v>
       </c>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" s="5">
         <v>650</v>
       </c>
@@ -24824,7 +24833,7 @@
         <v>6.9390634895945451E-20</v>
       </c>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>700</v>
       </c>
@@ -24869,7 +24878,7 @@
         <v>2.1540233397992046E-19</v>
       </c>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
         <v>750</v>
       </c>
@@ -24914,7 +24923,7 @@
         <v>1.0910930048169887E-18</v>
       </c>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
         <v>800</v>
       </c>
@@ -24959,7 +24968,7 @@
         <v>6.5040423188125209E-18</v>
       </c>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
         <v>850</v>
       </c>
@@ -25004,7 +25013,7 @@
         <v>3.4082482634992529E-17</v>
       </c>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
         <v>900</v>
       </c>
@@ -25049,7 +25058,7 @@
         <v>1.5099181173942965E-16</v>
       </c>
     </row>
-    <row r="42" spans="3:15">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
         <v>950</v>
       </c>
@@ -25094,7 +25103,7 @@
         <v>5.7397078712254967E-16</v>
       </c>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
         <v>1000</v>
       </c>
@@ -25139,7 +25148,7 @@
         <v>1.9108706735278472E-15</v>
       </c>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
         <v>1050</v>
       </c>
@@ -25184,7 +25193,7 @@
         <v>5.6746850978897569E-15</v>
       </c>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
         <v>1100</v>
       </c>
@@ -25243,14 +25252,14 @@
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -25297,7 +25306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>5E+20</v>
       </c>
@@ -25354,7 +25363,7 @@
         <v>1.6637959051825222E-17</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5E+20</v>
       </c>
@@ -25411,7 +25420,7 @@
         <v>8.2399195677394714E-18</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5E+20</v>
       </c>
@@ -25468,7 +25477,7 @@
         <v>3.4335397262694005E-18</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5E+20</v>
       </c>
@@ -25525,7 +25534,7 @@
         <v>1.1230493972135499E-18</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>5E+20</v>
       </c>
@@ -25582,7 +25591,7 @@
         <v>2.5591906219187452E-19</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>5E+20</v>
       </c>
@@ -25639,7 +25648,7 @@
         <v>3.3419393141527137E-20</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>5E+20</v>
       </c>
@@ -25696,7 +25705,7 @@
         <v>1.6471958347425575E-21</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>5E+20</v>
       </c>
